--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_0_28.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_0_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2465428.403159039</v>
+        <v>2463540.821642636</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>557519.8973693624</v>
+        <v>613914.7123352998</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -665,13 +665,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>351.2391879744746</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>167.2931083881476</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -820,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>59.6638564154455</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.5106614771181</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -899,22 +899,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>102.0934998363476</v>
       </c>
       <c r="H5" t="n">
-        <v>224.0834635976121</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1057,22 +1057,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>59.66385641544551</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>156.127162662147</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,7 +1142,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>307.9222910483171</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1190,10 +1190,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>299.8120100236803</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1300,10 +1300,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>25.31590541686237</v>
       </c>
       <c r="G10" t="n">
-        <v>59.7268375758684</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174107</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,16 +1528,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>126.3461454004068</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>118.4898845065123</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>27.71082088042219</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>141.2701222011939</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1825,13 +1825,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1859,10 +1859,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2011,10 +2011,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>58.71291134403118</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2296,16 +2296,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>70.69146715361167</v>
       </c>
       <c r="W22" t="n">
-        <v>271.781864199688</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2333,10 +2333,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>256.3432811758634</v>
+        <v>203.8435192151912</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2612,7 +2612,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2767,19 +2767,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>229.0573510538006</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>221.2306574774761</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2846,7 +2846,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533799</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>112.0435644700705</v>
       </c>
       <c r="D31" t="n">
-        <v>21.10228620522094</v>
+        <v>6.743544082574594</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801214</v>
+        <v>91.2307060180118</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437422</v>
+        <v>90.21779139437388</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348202</v>
       </c>
       <c r="H31" t="n">
-        <v>93.7105717389791</v>
+        <v>93.71057173897876</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571497</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523578</v>
+        <v>54.76109577523543</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>142.7175533550459</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.03409577002</v>
       </c>
       <c r="V31" t="n">
-        <v>196.934386695271</v>
+        <v>196.9343866952706</v>
       </c>
       <c r="W31" t="n">
-        <v>231.319741708034</v>
+        <v>231.3197417080336</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>170.5063987604798</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>163.3813967235374</v>
       </c>
     </row>
     <row r="32">
@@ -3083,7 +3083,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3235,7 +3235,7 @@
         <v>41.83246227415211</v>
       </c>
       <c r="S34" t="n">
-        <v>129.7889198539643</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T34" t="n">
         <v>153.4156709287486</v>
@@ -3281,7 +3281,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I35" t="n">
         <v>81.77913505274077</v>
@@ -3323,7 +3323,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857166</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3557,7 +3557,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373689</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I40" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
@@ -3910,7 +3910,7 @@
         <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
         <v>80.78193823789547</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692848</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1591.868758816787</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C2" t="n">
-        <v>1222.906241876376</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="D2" t="n">
-        <v>864.6405432696254</v>
+        <v>819.7159451700475</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>819.7159451700475</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>408.7300403804399</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036446</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4358,22 +4358,22 @@
         <v>2697.149091018223</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990286</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U2" t="n">
-        <v>2309.53148622448</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V2" t="n">
-        <v>1978.468598880909</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W2" t="n">
-        <v>1978.468598880909</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X2" t="n">
-        <v>1978.468598880909</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y2" t="n">
-        <v>1978.468598880909</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018223</v>
@@ -4452,7 +4452,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D4" t="n">
-        <v>578.0123447940987</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E4" t="n">
-        <v>430.0992512117056</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F4" t="n">
-        <v>283.2093037137952</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>114.2095034521276</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036446</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>336.276983312403</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>336.276983312403</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1567.641263708175</v>
+        <v>532.9757468194216</v>
       </c>
       <c r="C5" t="n">
-        <v>1198.678746767763</v>
+        <v>164.0132298790099</v>
       </c>
       <c r="D5" t="n">
-        <v>840.4130481610125</v>
+        <v>164.0132298790099</v>
       </c>
       <c r="E5" t="n">
-        <v>454.6247955627683</v>
+        <v>164.0132298790099</v>
       </c>
       <c r="F5" t="n">
-        <v>447.6792948135648</v>
+        <v>157.0677291298064</v>
       </c>
       <c r="G5" t="n">
-        <v>433.7558907521557</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="W5" t="n">
-        <v>2344.380435748108</v>
+        <v>1309.714918859355</v>
       </c>
       <c r="X5" t="n">
-        <v>2344.380435748108</v>
+        <v>1309.714918859355</v>
       </c>
       <c r="Y5" t="n">
-        <v>1954.241103772296</v>
+        <v>919.5755868835433</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D7" t="n">
-        <v>578.0123447940987</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E7" t="n">
-        <v>430.0992512117056</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F7" t="n">
-        <v>283.2093037137952</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G7" t="n">
-        <v>114.2095034521276</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>114.2095034521276</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1491.915471247702</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="C8" t="n">
-        <v>1122.952954307291</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>764.6872557005402</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>378.8990031022959</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2339.279987383381</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>1986.511332113267</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.654643287636</v>
+        <v>1613.045573852188</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.515311311824</v>
+        <v>1222.906241876376</v>
       </c>
     </row>
     <row r="9">
@@ -4878,22 +4878,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785273</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D10" t="n">
-        <v>409.0761618661916</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="E10" t="n">
-        <v>261.1630682837985</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="F10" t="n">
-        <v>114.2731207858881</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -5024,58 +5024,58 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231262</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141866</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465298</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121728</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
@@ -5106,31 +5106,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K12" t="n">
-        <v>97.21709146028584</v>
+        <v>465.3907418918574</v>
       </c>
       <c r="L12" t="n">
-        <v>327.180197328635</v>
+        <v>1079.287811648746</v>
       </c>
       <c r="M12" t="n">
-        <v>1095.548343721096</v>
+        <v>1847.655958041207</v>
       </c>
       <c r="N12" t="n">
-        <v>1899.959921985247</v>
+        <v>2192.176613678825</v>
       </c>
       <c r="O12" t="n">
         <v>2440.930027762787</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>688.5786845598162</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>519.6425016319093</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471187</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1379.229518531122</v>
+        <v>1164.055751909233</v>
       </c>
       <c r="U13" t="n">
-        <v>1090.100879744681</v>
+        <v>1164.055751909233</v>
       </c>
       <c r="V13" t="n">
-        <v>835.4163915387938</v>
+        <v>909.3712637033465</v>
       </c>
       <c r="W13" t="n">
-        <v>545.9992215018333</v>
+        <v>909.3712637033465</v>
       </c>
       <c r="X13" t="n">
-        <v>318.0096706038159</v>
+        <v>909.3712637033465</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>688.5786845598162</v>
       </c>
     </row>
     <row r="14">
@@ -5273,10 +5273,10 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514083</v>
@@ -5294,22 +5294,22 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
@@ -5352,25 +5352,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K15" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047984</v>
       </c>
       <c r="L15" t="n">
-        <v>711.1141612171745</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M15" t="n">
-        <v>1479.482307609636</v>
+        <v>1847.655958041207</v>
       </c>
       <c r="N15" t="n">
-        <v>2283.893885873787</v>
+        <v>2192.176613678825</v>
       </c>
       <c r="O15" t="n">
-        <v>2623.573505376138</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P15" t="n">
         <v>2623.573505376138</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>528.105874218302</v>
+        <v>294.1440025502355</v>
       </c>
       <c r="C16" t="n">
-        <v>359.1696912903951</v>
+        <v>125.2078196223284</v>
       </c>
       <c r="D16" t="n">
-        <v>359.1696912903951</v>
+        <v>125.2078196223284</v>
       </c>
       <c r="E16" t="n">
-        <v>359.1696912903951</v>
+        <v>125.2078196223284</v>
       </c>
       <c r="F16" t="n">
-        <v>359.1696912903951</v>
+        <v>125.2078196223284</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688068</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799361</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471186</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
         <v>1283.483062980063</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1045.224063902761</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>756.0954251163193</v>
+        <v>986.002216560966</v>
       </c>
       <c r="V16" t="n">
-        <v>756.0954251163193</v>
+        <v>986.002216560966</v>
       </c>
       <c r="W16" t="n">
-        <v>756.0954251163193</v>
+        <v>696.5850465240053</v>
       </c>
       <c r="X16" t="n">
-        <v>528.105874218302</v>
+        <v>696.5850465240053</v>
       </c>
       <c r="Y16" t="n">
-        <v>528.105874218302</v>
+        <v>475.7924673804752</v>
       </c>
     </row>
     <row r="17">
@@ -5492,70 +5492,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5580,37 +5580,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L18" t="n">
-        <v>97.21709146028584</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M18" t="n">
-        <v>417.5524109899876</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N18" t="n">
-        <v>1138.699705022018</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>412.2823606383757</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C19" t="n">
-        <v>412.2823606383757</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D19" t="n">
-        <v>412.2823606383757</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E19" t="n">
-        <v>412.2823606383757</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404654</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1439.610299503326</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T19" t="n">
-        <v>1439.610299503326</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1150.481660716884</v>
+        <v>786.0822064765182</v>
       </c>
       <c r="V19" t="n">
-        <v>1150.481660716884</v>
+        <v>531.3977182706313</v>
       </c>
       <c r="W19" t="n">
-        <v>861.0644906799232</v>
+        <v>241.9805482336707</v>
       </c>
       <c r="X19" t="n">
-        <v>633.0749397819059</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y19" t="n">
-        <v>412.2823606383757</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,16 +5735,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5753,7 +5753,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,7 +5768,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5786,16 +5786,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5832,22 +5832,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L21" t="n">
-        <v>97.21709146028584</v>
+        <v>841.2209420433995</v>
       </c>
       <c r="M21" t="n">
-        <v>334.2881267578673</v>
+        <v>1609.589088435861</v>
       </c>
       <c r="N21" t="n">
-        <v>1138.699705022018</v>
+        <v>1954.109744073479</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>732.6596981028221</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>563.7235151749152</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>563.7235151749152</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925221</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925221</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.210845262961</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>1075.210845262961</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V22" t="n">
-        <v>820.5263570570737</v>
+        <v>1203.725332970022</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018333</v>
+        <v>914.3081629330618</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>914.3081629330618</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>914.3081629330618</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -5999,40 +5999,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6066,28 +6066,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028587</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>97.21709146028587</v>
+        <v>1029.165307834915</v>
       </c>
       <c r="M24" t="n">
-        <v>334.288126757867</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="N24" t="n">
-        <v>1138.699705022018</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>244.1070389581963</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>244.1070389581963</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>244.1070389581963</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581963</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
         <v>97.21709146028587</v>
@@ -6151,10 +6151,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,7 +6163,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
         <v>1498.916270557902</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1016.198248099061</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V25" t="n">
-        <v>761.5137598931742</v>
+        <v>614.6238123952639</v>
       </c>
       <c r="W25" t="n">
-        <v>472.0965898562136</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>244.1070389581963</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y25" t="n">
-        <v>244.1070389581963</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,34 +6209,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6245,31 +6245,31 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6291,28 +6291,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L27" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M27" t="n">
-        <v>2056.693778606511</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028576</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028581</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028581</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6388,46 +6388,46 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347409</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>1043.759793676903</v>
+        <v>986.0022165609661</v>
       </c>
       <c r="V28" t="n">
-        <v>789.075305471016</v>
+        <v>762.5369059776569</v>
       </c>
       <c r="W28" t="n">
-        <v>499.6581354340555</v>
+        <v>473.1197359406963</v>
       </c>
       <c r="X28" t="n">
-        <v>499.6581354340555</v>
+        <v>245.130185042679</v>
       </c>
       <c r="Y28" t="n">
-        <v>278.8655562905254</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6446,25 +6446,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6473,7 +6473,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6497,16 +6497,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6543,22 +6543,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L30" t="n">
-        <v>97.21709146028584</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M30" t="n">
-        <v>334.2881267578673</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N30" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>565.4200295030868</v>
+        <v>607.5569798833467</v>
       </c>
       <c r="C31" t="n">
-        <v>452.2447118565505</v>
+        <v>494.3816622368108</v>
       </c>
       <c r="D31" t="n">
-        <v>430.9292712452162</v>
+        <v>487.5700015473414</v>
       </c>
       <c r="E31" t="n">
-        <v>338.7770429441938</v>
+        <v>395.4177732463194</v>
       </c>
       <c r="F31" t="n">
-        <v>247.6479607276536</v>
+        <v>304.2886910297801</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276536</v>
+        <v>191.8742346309714</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864674</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933501</v>
+        <v>369.0876362933507</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667508</v>
+        <v>671.4509053667517</v>
       </c>
       <c r="M31" t="n">
-        <v>997.668872196205</v>
+        <v>997.6688721962064</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286026</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353694</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021649</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056077</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.81182489927</v>
+        <v>1880.811824899273</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096193</v>
+        <v>1736.652680096197</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.62813016707</v>
+        <v>1736.652680096197</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661999</v>
+        <v>1503.284906591126</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737483</v>
+        <v>1304.36128366661</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818926</v>
+        <v>1070.704978911021</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652461</v>
+        <v>898.4762932943744</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030868</v>
+        <v>733.4445794322153</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6689,19 +6689,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6716,34 +6716,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6765,28 +6765,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126481</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571608</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L33" t="n">
-        <v>1288.325632214049</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M33" t="n">
-        <v>2056.693778606511</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229678</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506731</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083211</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504519</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982975</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6874,34 +6874,34 @@
         <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
         <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823786</v>
@@ -6959,28 +6959,28 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7002,25 +7002,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L36" t="n">
-        <v>1288.32563221405</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="M36" t="n">
         <v>2056.693778606511</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506718</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083198</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504505</v>
       </c>
       <c r="G37" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103122</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649693</v>
@@ -7117,7 +7117,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7132,13 +7132,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045208</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010318</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7157,34 +7157,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7208,16 +7208,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7251,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M39" t="n">
-        <v>323.6581146605672</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N39" t="n">
-        <v>1128.069692924718</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O39" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103133</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7330,13 +7330,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,7 +7351,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="41">
@@ -7391,28 +7391,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7427,16 +7427,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
@@ -7485,19 +7485,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>508.1073603047985</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>1122.004430061687</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M42" t="n">
-        <v>1890.372576454149</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N42" t="n">
         <v>2623.573505376138</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
         <v>320.8847398504512</v>
@@ -7564,13 +7564,13 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525398</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649691</v>
@@ -7594,25 +7594,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U43" t="n">
         <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7631,49 +7631,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
@@ -7682,16 +7682,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7722,19 +7722,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L45" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M45" t="n">
-        <v>2056.693778606511</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N45" t="n">
         <v>2623.573505376138</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C46" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504506</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103123</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982967</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254953</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7828,7 +7828,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S46" t="n">
         <v>1865.165908942116</v>
@@ -7843,13 +7843,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045205</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010313</v>
+        <v>772.288612901031</v>
       </c>
     </row>
   </sheetData>
@@ -8544,7 +8544,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783523</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8769,7 +8769,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9021,7 +9021,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9258,10 +9258,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,16 +9477,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9495,10 +9495,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,19 +9717,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>381.5997261417972</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -10188,28 +10188,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10364,7 +10364,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714841</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10449,7 +10449,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10902,25 +10902,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>370.8623401849288</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -23416,16 +23416,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>22.26932761780558</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>103.0576765518769</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>138.7827475829554</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>80.27743885719542</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23899,10 +23899,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23938,25 +23938,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>139.2078986395721</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24175,7 +24175,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,16 +24184,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>181.4461761702163</v>
       </c>
       <c r="W22" t="n">
-        <v>14.74113413690299</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24373,7 +24373,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24412,13 +24412,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>29.89407122271405</v>
+        <v>82.39383318338615</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24607,7 +24607,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24655,19 +24655,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.18000134477666</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>30.90698584635186</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533803</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>72.30993018443439</v>
+        <v>86.6686723070804</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571462</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>166.3443044298319</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>-1.55098157816992e-12</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>821161.0254491888</v>
+        <v>821161.0254491887</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>854326.4884250674</v>
+        <v>854326.4884250676</v>
       </c>
     </row>
     <row r="12">
@@ -26314,25 +26314,25 @@
         <v>574729.2389049989</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049989</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="E2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.6836327923</v>
       </c>
       <c r="F2" t="n">
         <v>547440.6836327926</v>
       </c>
       <c r="G2" t="n">
-        <v>547440.6836327923</v>
+        <v>547440.6836327924</v>
       </c>
       <c r="H2" t="n">
-        <v>547440.6836327923</v>
+        <v>547440.6836327924</v>
       </c>
       <c r="I2" t="n">
-        <v>547440.6836327926</v>
+        <v>547440.6836327922</v>
       </c>
       <c r="J2" t="n">
         <v>547440.6836327926</v>
@@ -26341,19 +26341,19 @@
         <v>569550.9922833786</v>
       </c>
       <c r="L2" t="n">
+        <v>574729.2389049977</v>
+      </c>
+      <c r="M2" t="n">
         <v>574729.2389049986</v>
       </c>
-      <c r="M2" t="n">
-        <v>574729.2389049981</v>
-      </c>
       <c r="N2" t="n">
-        <v>574729.2389049977</v>
+        <v>574729.2389049983</v>
       </c>
       <c r="O2" t="n">
-        <v>574729.2389049976</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="P2" t="n">
-        <v>574729.2389049978</v>
+        <v>574729.2389049982</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768958</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284559</v>
+        <v>44162.60530284589</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086694</v>
+        <v>10342.90680086667</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338369</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284563</v>
+        <v>44162.6053028459</v>
       </c>
     </row>
     <row r="4">
@@ -26418,46 +26418,46 @@
         <v>139059.139180619</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
+        <v>787.7936905759741</v>
+      </c>
+      <c r="F4" t="n">
+        <v>787.7936905759236</v>
+      </c>
+      <c r="G4" t="n">
+        <v>787.793690575921</v>
+      </c>
+      <c r="H4" t="n">
+        <v>787.7936905758888</v>
+      </c>
+      <c r="I4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="F4" t="n">
-        <v>787.793690575863</v>
-      </c>
-      <c r="G4" t="n">
-        <v>787.7936905758824</v>
-      </c>
-      <c r="H4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="I4" t="n">
-        <v>787.7936905758411</v>
-      </c>
       <c r="J4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905759236</v>
       </c>
       <c r="K4" t="n">
-        <v>18952.41620477239</v>
+        <v>18952.41620477251</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189641</v>
+        <v>23206.58093189636</v>
       </c>
       <c r="M4" t="n">
+        <v>23206.58093189639</v>
+      </c>
+      <c r="N4" t="n">
         <v>23206.58093189637</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>23206.58093189636</v>
       </c>
-      <c r="O4" t="n">
-        <v>23206.58093189634</v>
-      </c>
       <c r="P4" t="n">
-        <v>23206.58093189636</v>
+        <v>23206.58093189635</v>
       </c>
     </row>
     <row r="5">
@@ -26476,13 +26476,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871659</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
@@ -26491,25 +26491,25 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022282</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="M5" t="n">
         <v>97715.10582002538</v>
-      </c>
-      <c r="M5" t="n">
-        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26522,43 +26522,43 @@
         <v>-237156.8575535742</v>
       </c>
       <c r="C6" t="n">
-        <v>352811.0216609704</v>
+        <v>352811.0216609702</v>
       </c>
       <c r="D6" t="n">
-        <v>352811.0216609703</v>
+        <v>352811.0216609698</v>
       </c>
       <c r="E6" t="n">
-        <v>-70494.47248339644</v>
+        <v>-70591.9316093682</v>
       </c>
       <c r="F6" t="n">
-        <v>454665.5639935001</v>
+        <v>454568.1048675279</v>
       </c>
       <c r="G6" t="n">
-        <v>454665.5639934998</v>
+        <v>454568.1048675278</v>
       </c>
       <c r="H6" t="n">
-        <v>454665.5639934998</v>
+        <v>454568.1048675278</v>
       </c>
       <c r="I6" t="n">
-        <v>454665.5639935001</v>
+        <v>454568.1048675276</v>
       </c>
       <c r="J6" t="n">
-        <v>278242.3448009072</v>
+        <v>278144.885674935</v>
       </c>
       <c r="K6" t="n">
-        <v>409807.7622455378</v>
+        <v>409789.268507603</v>
       </c>
       <c r="L6" t="n">
-        <v>443464.6453522099</v>
+        <v>443464.6453522092</v>
       </c>
       <c r="M6" t="n">
-        <v>319006.5369192392</v>
+        <v>319006.5369192399</v>
       </c>
       <c r="N6" t="n">
-        <v>453807.552153076</v>
+        <v>453807.5521530766</v>
       </c>
       <c r="O6" t="n">
-        <v>453807.5521530758</v>
+        <v>453807.5521530768</v>
       </c>
       <c r="P6" t="n">
         <v>409644.9468502305</v>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855736</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964069</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26735,31 +26735,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855736</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108367</v>
+        <v>12.92863350108333</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855738</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990167</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855736</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,13 +27385,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>62.54498204632034</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>83.9310591201417</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,25 +27540,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>96.50703242634964</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>6.771212764859627</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27619,22 +27619,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>311.6906701844474</v>
       </c>
       <c r="H5" t="n">
-        <v>99.83930916674507</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,19 +27661,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27777,25 +27777,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>75.30176537689272</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>56.01837628787186</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,7 +27862,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>98.95375469339433</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27910,10 +27910,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>27.94024844645463</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28020,10 +28020,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>120.1051426060689</v>
       </c>
       <c r="G10" t="n">
-        <v>107.5829646831825</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28150,7 +28150,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>2.307274371560197e-12</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29332,7 +29332,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855736</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855736</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855736</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855736</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855736</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855736</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855736</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855736</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855736</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855736</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855736</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855736</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855736</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855736</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855736</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855736</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855736</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855736</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855736</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855736</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855736</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855736</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855736</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855736</v>
       </c>
     </row>
     <row r="32">
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30043,7 +30043,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="41">
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,19 +31118,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653305</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>60.29709682323551</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,19 +31355,19 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>87.78329382423925</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>35.71704454957967</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31601,10 +31601,10 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>87.78329382423996</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,31 +31829,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>77.2675638599716</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>295.1683754480584</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -31865,10 +31865,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,43 +31914,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,31 +32066,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>409.410311565473</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>91.84465193776708</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -32102,10 +32102,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32166,10 +32166,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,16 +32251,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,37 +32312,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>380.4309478731435</v>
+        <v>141.3402618185954</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,28 +32549,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>104.1923998689413</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>100.1578341526431</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,16 +32725,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,22 +32786,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>126.0339793024297</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>341.0678223458549</v>
@@ -32810,13 +32810,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>224.6051223555648</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -33050,10 +33050,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33260,28 +33260,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>380.6284621420188</v>
       </c>
       <c r="N30" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>100.1578341526431</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33509,7 +33509,7 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>224.6051223555648</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -33521,7 +33521,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>33.17612723677464</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946997</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33971,31 +33971,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677464</v>
@@ -34153,7 +34153,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
         <v>76.06970478104648</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34220,7 +34220,7 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>392.6063366508803</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -34378,7 +34378,7 @@
         <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927201</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
         <v>562.4526372540886</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34457,7 +34457,7 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>224.6051223555648</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35264,7 +35264,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,22 +35486,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>203.8913618981912</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594833</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>546.4344502803435</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>732.9813413934546</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>343.1107267700522</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>728.4316101333637</v>
+        <v>489.3409240788156</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>336.4783653925263</v>
       </c>
       <c r="M21" t="n">
-        <v>239.4656922197792</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
         <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,22 +36434,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>358.3199448260147</v>
       </c>
       <c r="M24" t="n">
-        <v>239.4656922197789</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>525.5561835714618</v>
@@ -36458,7 +36458,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
@@ -36680,10 +36680,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>572.6057846157851</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36911,25 +36911,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>239.4656922197792</v>
+        <v>704.1994919700004</v>
       </c>
       <c r="N30" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412255</v>
+        <v>67.71102679412289</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584679</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084855</v>
+        <v>305.4174435084859</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075299</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341606</v>
+        <v>328.480134434161</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.4406081491602</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403578</v>
+        <v>233.5868572403581</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043177</v>
+        <v>94.42895660043212</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37084,7 +37084,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q32" t="n">
         <v>350.4995841502048</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37157,7 +37157,7 @@
         <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>572.6057846157851</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,13 +37473,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37558,7 +37558,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109128</v>
       </c>
       <c r="Q38" t="n">
         <v>350.4995841502048</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>228.7283062629105</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520621</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37716,7 +37716,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
@@ -37868,7 +37868,7 @@
         <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>740.6069989111005</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K44" t="n">
         <v>528.689756130333</v>
@@ -38026,7 +38026,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081133</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
         <v>713.1546070951472</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
@@ -38105,7 +38105,7 @@
         <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>572.6057846157851</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38190,7 +38190,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
